--- a/data/MLB_percentHomeWins.xlsx
+++ b/data/MLB_percentHomeWins.xlsx
@@ -519,19 +519,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5679012345679012</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="C2">
-        <v>0.4814814814814815</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="D2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E2">
-        <v>0.5555555555555556</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="F2">
-        <v>0.5555555555555556</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -569,49 +569,49 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5802469135802469</v>
+        <v>0.2901234567901235</v>
       </c>
       <c r="C3">
-        <v>0.5925925925925926</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="D3">
-        <v>0.6790123456790124</v>
+        <v>0.3395061728395062</v>
       </c>
       <c r="E3">
-        <v>0.5555555555555556</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="F3">
-        <v>0.3580246913580247</v>
+        <v>0.1790123456790123</v>
       </c>
       <c r="G3">
-        <v>0.4444444444444444</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="H3">
-        <v>0.4814814814814815</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="I3">
-        <v>0.6172839506172839</v>
+        <v>0.308641975308642</v>
       </c>
       <c r="J3">
-        <v>0.5925925925925926</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="K3">
-        <v>0.4444444444444444</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L3">
-        <v>0.4938271604938271</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="M3">
-        <v>0.6296296296296297</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="N3">
-        <v>0.5061728395061729</v>
+        <v>0.2530864197530864</v>
       </c>
       <c r="O3">
-        <v>0.5555555555555556</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="P3">
-        <v>0.4074074074074074</v>
+        <v>0.2037037037037037</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -619,49 +619,49 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6296296296296297</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="C4">
-        <v>0.4938271604938271</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="D4">
-        <v>0.6419753086419753</v>
+        <v>0.3209876543209876</v>
       </c>
       <c r="E4">
-        <v>0.6790123456790124</v>
+        <v>0.3395061728395062</v>
       </c>
       <c r="F4">
-        <v>0.6049382716049383</v>
+        <v>0.3024691358024691</v>
       </c>
       <c r="G4">
-        <v>0.654320987654321</v>
+        <v>0.3271604938271605</v>
       </c>
       <c r="H4">
-        <v>0.4938271604938271</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="I4">
-        <v>0.5432098765432098</v>
+        <v>0.2716049382716049</v>
       </c>
       <c r="J4">
-        <v>0.5308641975308642</v>
+        <v>0.2654320987654321</v>
       </c>
       <c r="K4">
-        <v>0.4938271604938271</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="L4">
-        <v>0.691358024691358</v>
+        <v>0.345679012345679</v>
       </c>
       <c r="M4">
-        <v>0.5802469135802469</v>
+        <v>0.2901234567901235</v>
       </c>
       <c r="N4">
-        <v>0.5925925925925926</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="O4">
-        <v>0.691358024691358</v>
+        <v>0.345679012345679</v>
       </c>
       <c r="P4">
-        <v>0.5185185185185185</v>
+        <v>0.2592592592592592</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -669,49 +669,49 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5432098765432098</v>
+        <v>0.2716049382716049</v>
       </c>
       <c r="C5">
-        <v>0.3703703703703703</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="D5">
-        <v>0.4197530864197531</v>
+        <v>0.2098765432098765</v>
       </c>
       <c r="E5">
-        <v>0.4938271604938271</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="F5">
-        <v>0.4691358024691358</v>
+        <v>0.2345679012345679</v>
       </c>
       <c r="G5">
-        <v>0.4444444444444444</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="H5">
-        <v>0.4938271604938271</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="I5">
-        <v>0.4320987654320987</v>
+        <v>0.2160493827160494</v>
       </c>
       <c r="J5">
-        <v>0.4567901234567901</v>
+        <v>0.228395061728395</v>
       </c>
       <c r="K5">
-        <v>0.4814814814814815</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="L5">
-        <v>0.4567901234567901</v>
+        <v>0.228395061728395</v>
       </c>
       <c r="M5">
-        <v>0.4814814814814815</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="N5">
-        <v>0.5802469135802469</v>
+        <v>0.2901234567901235</v>
       </c>
       <c r="O5">
-        <v>0.5679012345679012</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="P5">
-        <v>0.6172839506172839</v>
+        <v>0.308641975308642</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -719,49 +719,49 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5185185185185185</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="C6">
-        <v>0.5061728395061729</v>
+        <v>0.2530864197530864</v>
       </c>
       <c r="D6">
-        <v>0.5185185185185185</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="E6">
-        <v>0.654320987654321</v>
+        <v>0.3271604938271605</v>
       </c>
       <c r="F6">
-        <v>0.6790123456790124</v>
+        <v>0.3395061728395062</v>
       </c>
       <c r="G6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H6">
-        <v>0.5925925925925926</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="I6">
-        <v>0.6296296296296297</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="J6">
-        <v>0.691358024691358</v>
+        <v>0.345679012345679</v>
       </c>
       <c r="K6">
-        <v>0.691358024691358</v>
+        <v>0.345679012345679</v>
       </c>
       <c r="L6">
-        <v>0.5679012345679012</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="M6">
-        <v>0.5555555555555556</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="N6">
-        <v>0.4197530864197531</v>
+        <v>0.2098765432098765</v>
       </c>
       <c r="O6">
-        <v>0.654320987654321</v>
+        <v>0.3271604938271605</v>
       </c>
       <c r="P6">
-        <v>0.4197530864197531</v>
+        <v>0.2098765432098765</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -769,49 +769,49 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5679012345679012</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="C7">
-        <v>0.5679012345679012</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="D7">
-        <v>0.5802469135802469</v>
+        <v>0.2901234567901235</v>
       </c>
       <c r="E7">
-        <v>0.6296296296296297</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="F7">
-        <v>0.5679012345679012</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="G7">
-        <v>0.5802469135802469</v>
+        <v>0.2901234567901235</v>
       </c>
       <c r="H7">
-        <v>0.6049382716049383</v>
+        <v>0.3024691358024691</v>
       </c>
       <c r="I7">
-        <v>0.4691358024691358</v>
+        <v>0.2345679012345679</v>
       </c>
       <c r="J7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K7">
-        <v>0.5308641975308642</v>
+        <v>0.2654320987654321</v>
       </c>
       <c r="L7">
-        <v>0.5555555555555556</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="M7">
-        <v>0.4444444444444444</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="N7">
-        <v>0.5555555555555556</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="O7">
-        <v>0.4567901234567901</v>
+        <v>0.228395061728395</v>
       </c>
       <c r="P7">
-        <v>0.4938271604938271</v>
+        <v>0.2469135802469136</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -819,49 +819,49 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4691358024691358</v>
+        <v>0.2345679012345679</v>
       </c>
       <c r="C8">
-        <v>0.5925925925925926</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="D8">
-        <v>0.4444444444444444</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E8">
-        <v>0.5432098765432098</v>
+        <v>0.2716049382716049</v>
       </c>
       <c r="F8">
-        <v>0.5555555555555556</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G8">
-        <v>0.4691358024691358</v>
+        <v>0.2345679012345679</v>
       </c>
       <c r="H8">
-        <v>0.4444444444444444</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I8">
-        <v>0.5432098765432098</v>
+        <v>0.2716049382716049</v>
       </c>
       <c r="J8">
-        <v>0.6790123456790124</v>
+        <v>0.3395061728395062</v>
       </c>
       <c r="K8">
-        <v>0.5679012345679012</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="L8">
-        <v>0.4320987654320987</v>
+        <v>0.2160493827160494</v>
       </c>
       <c r="M8">
-        <v>0.4814814814814815</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="N8">
-        <v>0.4691358024691358</v>
+        <v>0.2345679012345679</v>
       </c>
       <c r="O8">
-        <v>0.382716049382716</v>
+        <v>0.191358024691358</v>
       </c>
       <c r="P8">
-        <v>0.5061728395061729</v>
+        <v>0.2530864197530864</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -869,49 +869,49 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5308641975308642</v>
+        <v>0.2654320987654321</v>
       </c>
       <c r="C9">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D9">
-        <v>0.4691358024691358</v>
+        <v>0.2345679012345679</v>
       </c>
       <c r="E9">
-        <v>0.4320987654320987</v>
+        <v>0.2160493827160494</v>
       </c>
       <c r="F9">
-        <v>0.4938271604938271</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="G9">
-        <v>0.5185185185185185</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="H9">
-        <v>0.5185185185185185</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="I9">
-        <v>0.4814814814814815</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="J9">
-        <v>0.5308641975308642</v>
+        <v>0.2654320987654321</v>
       </c>
       <c r="K9">
-        <v>0.4938271604938271</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="L9">
-        <v>0.6049382716049383</v>
+        <v>0.3024691358024691</v>
       </c>
       <c r="M9">
-        <v>0.5185185185185185</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="N9">
-        <v>0.6172839506172839</v>
+        <v>0.308641975308642</v>
       </c>
       <c r="O9">
-        <v>0.6049382716049383</v>
+        <v>0.3024691358024691</v>
       </c>
       <c r="P9">
-        <v>0.5432098765432098</v>
+        <v>0.2716049382716049</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -919,49 +919,49 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5925925925925926</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="C10">
-        <v>0.5432098765432098</v>
+        <v>0.2716049382716049</v>
       </c>
       <c r="D10">
-        <v>0.4814814814814815</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="E10">
-        <v>0.4691358024691358</v>
+        <v>0.2345679012345679</v>
       </c>
       <c r="F10">
-        <v>0.5432098765432098</v>
+        <v>0.2716049382716049</v>
       </c>
       <c r="G10">
-        <v>0.5308641975308642</v>
+        <v>0.2654320987654321</v>
       </c>
       <c r="H10">
-        <v>0.5432098765432098</v>
+        <v>0.2716049382716049</v>
       </c>
       <c r="I10">
-        <v>0.6296296296296297</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="J10">
-        <v>0.5555555555555556</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="K10">
-        <v>0.4320987654320987</v>
+        <v>0.2160493827160494</v>
       </c>
       <c r="L10">
-        <v>0.4691358024691358</v>
+        <v>0.2345679012345679</v>
       </c>
       <c r="M10">
-        <v>0.5432098765432098</v>
+        <v>0.2716049382716049</v>
       </c>
       <c r="N10">
-        <v>0.4567901234567901</v>
+        <v>0.228395061728395</v>
       </c>
       <c r="O10">
-        <v>0.6296296296296297</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="P10">
-        <v>0.5925925925925926</v>
+        <v>0.2962962962962963</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,49 +969,49 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5925925925925926</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="C11">
-        <v>0.5061728395061729</v>
+        <v>0.2530864197530864</v>
       </c>
       <c r="D11">
-        <v>0.5802469135802469</v>
+        <v>0.2901234567901235</v>
       </c>
       <c r="E11">
-        <v>0.6049382716049383</v>
+        <v>0.3024691358024691</v>
       </c>
       <c r="F11">
-        <v>0.4691358024691358</v>
+        <v>0.2345679012345679</v>
       </c>
       <c r="G11">
-        <v>0.4938271604938271</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="H11">
-        <v>0.5432098765432098</v>
+        <v>0.2716049382716049</v>
       </c>
       <c r="I11">
-        <v>0.6296296296296297</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="J11">
-        <v>0.5308641975308642</v>
+        <v>0.2654320987654321</v>
       </c>
       <c r="K11">
-        <v>0.6296296296296297</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="L11">
-        <v>0.6419753086419753</v>
+        <v>0.3209876543209876</v>
       </c>
       <c r="M11">
-        <v>0.4691358024691358</v>
+        <v>0.2345679012345679</v>
       </c>
       <c r="N11">
-        <v>0.4320987654320987</v>
+        <v>0.2160493827160494</v>
       </c>
       <c r="O11">
-        <v>0.5555555555555556</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="P11">
-        <v>0.5555555555555556</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,49 +1019,49 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5308641975308642</v>
+        <v>0.2654320987654321</v>
       </c>
       <c r="C12">
-        <v>0.4567901234567901</v>
+        <v>0.228395061728395</v>
       </c>
       <c r="D12">
-        <v>0.4074074074074074</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="E12">
+        <v>0.1419753086419753</v>
+      </c>
+      <c r="F12">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="G12">
+        <v>0.2407407407407407</v>
+      </c>
+      <c r="H12">
         <v>0.2839506172839506</v>
       </c>
-      <c r="F12">
-        <v>0.4691358024691358</v>
-      </c>
-      <c r="G12">
-        <v>0.4814814814814815</v>
-      </c>
-      <c r="H12">
-        <v>0.5679012345679012</v>
-      </c>
       <c r="I12">
-        <v>0.5555555555555556</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="J12">
-        <v>0.4938271604938271</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="K12">
-        <v>0.6296296296296297</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="L12">
-        <v>0.6419753086419753</v>
+        <v>0.3209876543209876</v>
       </c>
       <c r="M12">
-        <v>0.6172839506172839</v>
+        <v>0.308641975308642</v>
       </c>
       <c r="N12">
-        <v>0.6172839506172839</v>
+        <v>0.308641975308642</v>
       </c>
       <c r="O12">
-        <v>0.6296296296296297</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="P12">
-        <v>0.5555555555555556</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,40 +1069,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5308641975308642</v>
+        <v>0.2654320987654321</v>
       </c>
       <c r="C13">
-        <v>0.5679012345679012</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="D13">
-        <v>0.5679012345679012</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="E13">
-        <v>0.654320987654321</v>
+        <v>0.3271604938271605</v>
       </c>
       <c r="F13">
-        <v>0.5185185185185185</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="G13">
-        <v>0.5555555555555556</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="H13">
-        <v>0.5185185185185185</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="I13">
-        <v>0.4444444444444444</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="J13">
-        <v>0.5555555555555556</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="K13">
-        <v>0.5308641975308642</v>
+        <v>0.2654320987654321</v>
       </c>
       <c r="L13">
-        <v>0.5061728395061729</v>
+        <v>0.2530864197530864</v>
       </c>
       <c r="M13">
-        <v>0.382716049382716</v>
+        <v>0.191358024691358</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1119,49 +1119,49 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4814814814814815</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="C14">
-        <v>0.5432098765432098</v>
+        <v>0.2716049382716049</v>
       </c>
       <c r="D14">
-        <v>0.5802469135802469</v>
+        <v>0.2901234567901235</v>
       </c>
       <c r="E14">
-        <v>0.5925925925925926</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="F14">
-        <v>0.5925925925925926</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="G14">
-        <v>0.654320987654321</v>
+        <v>0.3271604938271605</v>
       </c>
       <c r="H14">
-        <v>0.5432098765432098</v>
+        <v>0.2716049382716049</v>
       </c>
       <c r="I14">
-        <v>0.5185185185185185</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="J14">
-        <v>0.5802469135802469</v>
+        <v>0.2901234567901235</v>
       </c>
       <c r="K14">
-        <v>0.5432098765432098</v>
+        <v>0.2716049382716049</v>
       </c>
       <c r="L14">
-        <v>0.5185185185185185</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="M14">
-        <v>0.382716049382716</v>
+        <v>0.191358024691358</v>
       </c>
       <c r="N14">
-        <v>0.4320987654320987</v>
+        <v>0.2160493827160494</v>
       </c>
       <c r="O14">
-        <v>0.2962962962962963</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="P14">
-        <v>0.4691358024691358</v>
+        <v>0.2345679012345679</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,49 +1169,49 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5185185185185185</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="C15">
-        <v>0.4320987654320987</v>
+        <v>0.2160493827160494</v>
       </c>
       <c r="D15">
-        <v>0.4567901234567901</v>
+        <v>0.228395061728395</v>
       </c>
       <c r="E15">
-        <v>0.4938271604938271</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="F15">
-        <v>0.4074074074074074</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="G15">
-        <v>0.4197530864197531</v>
+        <v>0.2098765432098765</v>
       </c>
       <c r="H15">
-        <v>0.4197530864197531</v>
+        <v>0.2098765432098765</v>
       </c>
       <c r="I15">
-        <v>0.4320987654320987</v>
+        <v>0.2160493827160494</v>
       </c>
       <c r="J15">
-        <v>0.4691358024691358</v>
+        <v>0.2345679012345679</v>
       </c>
       <c r="K15">
-        <v>0.4074074074074074</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L15">
-        <v>0.4691358024691358</v>
+        <v>0.2345679012345679</v>
       </c>
       <c r="M15">
-        <v>0.4938271604938271</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="N15">
-        <v>0.4567901234567901</v>
+        <v>0.228395061728395</v>
       </c>
       <c r="O15">
-        <v>0.5432098765432098</v>
+        <v>0.2716049382716049</v>
       </c>
       <c r="P15">
-        <v>0.5185185185185185</v>
+        <v>0.2592592592592592</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,49 +1219,49 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5432098765432098</v>
+        <v>0.2716049382716049</v>
       </c>
       <c r="C16">
-        <v>0.5432098765432098</v>
+        <v>0.2716049382716049</v>
       </c>
       <c r="D16">
-        <v>0.5679012345679012</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="E16">
-        <v>0.5679012345679012</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="F16">
-        <v>0.6049382716049383</v>
+        <v>0.3024691358024691</v>
       </c>
       <c r="G16">
-        <v>0.4938271604938271</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="H16">
-        <v>0.6049382716049383</v>
+        <v>0.3024691358024691</v>
       </c>
       <c r="I16">
-        <v>0.5308641975308642</v>
+        <v>0.2654320987654321</v>
       </c>
       <c r="J16">
-        <v>0.5925925925925926</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="K16">
-        <v>0.6172839506172839</v>
+        <v>0.308641975308642</v>
       </c>
       <c r="L16">
-        <v>0.5555555555555556</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="M16">
-        <v>0.5185185185185185</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="N16">
-        <v>0.5555555555555556</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="O16">
-        <v>0.5802469135802469</v>
+        <v>0.2901234567901235</v>
       </c>
       <c r="P16">
-        <v>0.5555555555555556</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1269,49 +1269,49 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5185185185185185</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="C17">
-        <v>0.4444444444444444</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="D17">
-        <v>0.382716049382716</v>
+        <v>0.191358024691358</v>
       </c>
       <c r="E17">
-        <v>0.382716049382716</v>
+        <v>0.191358024691358</v>
       </c>
       <c r="F17">
-        <v>0.4444444444444444</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G17">
-        <v>0.5679012345679012</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="H17">
-        <v>0.5925925925925926</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="I17">
-        <v>0.6296296296296297</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="J17">
-        <v>0.6049382716049383</v>
+        <v>0.3024691358024691</v>
       </c>
       <c r="K17">
-        <v>0.4938271604938271</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="L17">
-        <v>0.4938271604938271</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="M17">
-        <v>0.7037037037037037</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="N17">
-        <v>0.6049382716049383</v>
+        <v>0.3024691358024691</v>
       </c>
       <c r="O17">
-        <v>0.4567901234567901</v>
+        <v>0.228395061728395</v>
       </c>
       <c r="P17">
-        <v>0.5185185185185185</v>
+        <v>0.2592592592592592</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1319,49 +1319,49 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4444444444444444</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C18">
-        <v>0.5802469135802469</v>
+        <v>0.2901234567901235</v>
       </c>
       <c r="D18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E18">
-        <v>0.5925925925925926</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="F18">
-        <v>0.6049382716049383</v>
+        <v>0.3024691358024691</v>
       </c>
       <c r="G18">
-        <v>0.5555555555555556</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="H18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I18">
-        <v>0.5061728395061729</v>
+        <v>0.2530864197530864</v>
       </c>
       <c r="J18">
-        <v>0.654320987654321</v>
+        <v>0.3271604938271605</v>
       </c>
       <c r="K18">
-        <v>0.6049382716049383</v>
+        <v>0.3024691358024691</v>
       </c>
       <c r="L18">
-        <v>0.654320987654321</v>
+        <v>0.3271604938271605</v>
       </c>
       <c r="M18">
-        <v>0.4074074074074074</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="N18">
-        <v>0.382716049382716</v>
+        <v>0.191358024691358</v>
       </c>
       <c r="O18">
-        <v>0.3950617283950617</v>
+        <v>0.1975308641975309</v>
       </c>
       <c r="P18">
-        <v>0.4320987654320987</v>
+        <v>0.2160493827160494</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1369,19 +1369,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4567901234567901</v>
+        <v>0.228395061728395</v>
       </c>
       <c r="C19">
-        <v>0.4197530864197531</v>
+        <v>0.2098765432098765</v>
       </c>
       <c r="D19">
-        <v>0.6049382716049383</v>
+        <v>0.3024691358024691</v>
       </c>
       <c r="E19">
-        <v>0.6419753086419753</v>
+        <v>0.3209876543209876</v>
       </c>
       <c r="F19">
-        <v>0.4320987654320987</v>
+        <v>0.2160493827160494</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1419,49 +1419,49 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5432098765432098</v>
+        <v>0.2716049382716049</v>
       </c>
       <c r="C20">
-        <v>0.6296296296296297</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="D20">
-        <v>0.6419753086419753</v>
+        <v>0.3209876543209876</v>
       </c>
       <c r="E20">
-        <v>0.6172839506172839</v>
+        <v>0.308641975308642</v>
       </c>
       <c r="F20">
-        <v>0.7037037037037037</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="G20">
-        <v>0.654320987654321</v>
+        <v>0.3271604938271605</v>
       </c>
       <c r="H20">
-        <v>0.6172839506172839</v>
+        <v>0.308641975308642</v>
       </c>
       <c r="I20">
-        <v>0.6419753086419753</v>
+        <v>0.3209876543209876</v>
       </c>
       <c r="J20">
-        <v>0.5925925925925926</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="K20">
-        <v>0.7037037037037037</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="L20">
-        <v>0.6419753086419753</v>
+        <v>0.3209876543209876</v>
       </c>
       <c r="M20">
-        <v>0.6419753086419753</v>
+        <v>0.3209876543209876</v>
       </c>
       <c r="N20">
-        <v>0.6296296296296297</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="O20">
-        <v>0.5679012345679012</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="P20">
-        <v>0.5308641975308642</v>
+        <v>0.2654320987654321</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1469,49 +1469,49 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6790123456790124</v>
+        <v>0.3395061728395062</v>
       </c>
       <c r="C21">
-        <v>0.5432098765432098</v>
+        <v>0.2716049382716049</v>
       </c>
       <c r="D21">
-        <v>0.4691358024691358</v>
+        <v>0.2345679012345679</v>
       </c>
       <c r="E21">
-        <v>0.4197530864197531</v>
+        <v>0.2098765432098765</v>
       </c>
       <c r="F21">
-        <v>0.4691358024691358</v>
+        <v>0.2345679012345679</v>
       </c>
       <c r="G21">
-        <v>0.5925925925925926</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="H21">
-        <v>0.6172839506172839</v>
+        <v>0.308641975308642</v>
       </c>
       <c r="I21">
-        <v>0.5061728395061729</v>
+        <v>0.2530864197530864</v>
       </c>
       <c r="J21">
-        <v>0.5925925925925926</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="K21">
-        <v>0.5061728395061729</v>
+        <v>0.2530864197530864</v>
       </c>
       <c r="L21">
-        <v>0.5802469135802469</v>
+        <v>0.2901234567901235</v>
       </c>
       <c r="M21">
-        <v>0.4197530864197531</v>
+        <v>0.2098765432098765</v>
       </c>
       <c r="N21">
-        <v>0.4444444444444444</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="O21">
-        <v>0.4074074074074074</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="P21">
-        <v>0.4938271604938271</v>
+        <v>0.2469135802469136</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1519,49 +1519,49 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5802469135802469</v>
+        <v>0.2901234567901235</v>
       </c>
       <c r="C22">
-        <v>0.654320987654321</v>
+        <v>0.3271604938271605</v>
       </c>
       <c r="D22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E22">
-        <v>0.7037037037037037</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="F22">
-        <v>0.6419753086419753</v>
+        <v>0.3209876543209876</v>
       </c>
       <c r="G22">
-        <v>0.5555555555555556</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="H22">
-        <v>0.6049382716049383</v>
+        <v>0.3024691358024691</v>
       </c>
       <c r="I22">
-        <v>0.4938271604938271</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="J22">
-        <v>0.5308641975308642</v>
+        <v>0.2654320987654321</v>
       </c>
       <c r="K22">
-        <v>0.4938271604938271</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="L22">
-        <v>0.5802469135802469</v>
+        <v>0.2901234567901235</v>
       </c>
       <c r="M22">
-        <v>0.5308641975308642</v>
+        <v>0.2654320987654321</v>
       </c>
       <c r="N22">
-        <v>0.6172839506172839</v>
+        <v>0.308641975308642</v>
       </c>
       <c r="O22">
-        <v>0.6419753086419753</v>
+        <v>0.3209876543209876</v>
       </c>
       <c r="P22">
-        <v>0.5925925925925926</v>
+        <v>0.2962962962962963</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1569,49 +1569,49 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4197530864197531</v>
+        <v>0.2098765432098765</v>
       </c>
       <c r="C23">
-        <v>0.5802469135802469</v>
+        <v>0.2901234567901235</v>
       </c>
       <c r="D23">
-        <v>0.4938271604938271</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="E23">
-        <v>0.6049382716049383</v>
+        <v>0.3024691358024691</v>
       </c>
       <c r="F23">
-        <v>0.5185185185185185</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="G23">
-        <v>0.5679012345679012</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="H23">
-        <v>0.5061728395061729</v>
+        <v>0.2530864197530864</v>
       </c>
       <c r="I23">
-        <v>0.5802469135802469</v>
+        <v>0.2901234567901235</v>
       </c>
       <c r="J23">
-        <v>0.5925925925925926</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="K23">
-        <v>0.5555555555555556</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>0.6419753086419753</v>
+        <v>0.3209876543209876</v>
       </c>
       <c r="N23">
-        <v>0.4938271604938271</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="O23">
-        <v>0.5308641975308642</v>
+        <v>0.2654320987654321</v>
       </c>
       <c r="P23">
-        <v>0.4567901234567901</v>
+        <v>0.228395061728395</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1619,49 +1619,49 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4567901234567901</v>
+        <v>0.228395061728395</v>
       </c>
       <c r="C24">
-        <v>0.4691358024691358</v>
+        <v>0.2345679012345679</v>
       </c>
       <c r="D24">
-        <v>0.4691358024691358</v>
+        <v>0.2345679012345679</v>
       </c>
       <c r="E24">
-        <v>0.4814814814814815</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="F24">
-        <v>0.4814814814814815</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="G24">
-        <v>0.4197530864197531</v>
+        <v>0.2098765432098765</v>
       </c>
       <c r="H24">
-        <v>0.5308641975308642</v>
+        <v>0.2654320987654321</v>
       </c>
       <c r="I24">
-        <v>0.4567901234567901</v>
+        <v>0.228395061728395</v>
       </c>
       <c r="J24">
-        <v>0.4814814814814815</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="K24">
-        <v>0.4938271604938271</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="L24">
-        <v>0.4938271604938271</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="M24">
-        <v>0.4444444444444444</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="N24">
-        <v>0.5555555555555556</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="O24">
-        <v>0.6172839506172839</v>
+        <v>0.308641975308642</v>
       </c>
       <c r="P24">
-        <v>0.6296296296296297</v>
+        <v>0.3148148148148148</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1669,49 +1669,49 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5061728395061729</v>
+        <v>0.2530864197530864</v>
       </c>
       <c r="C25">
-        <v>0.4320987654320987</v>
+        <v>0.2160493827160494</v>
       </c>
       <c r="D25">
-        <v>0.5061728395061729</v>
+        <v>0.2530864197530864</v>
       </c>
       <c r="E25">
-        <v>0.4320987654320987</v>
+        <v>0.2160493827160494</v>
       </c>
       <c r="F25">
-        <v>0.5185185185185185</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="G25">
-        <v>0.5679012345679012</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="H25">
-        <v>0.5308641975308642</v>
+        <v>0.2654320987654321</v>
       </c>
       <c r="I25">
-        <v>0.5802469135802469</v>
+        <v>0.2901234567901235</v>
       </c>
       <c r="J25">
-        <v>0.4320987654320987</v>
+        <v>0.2160493827160494</v>
       </c>
       <c r="K25">
-        <v>0.5185185185185185</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="L25">
-        <v>0.5555555555555556</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="M25">
-        <v>0.4320987654320987</v>
+        <v>0.2160493827160494</v>
       </c>
       <c r="N25">
-        <v>0.5185185185185185</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="O25">
-        <v>0.5555555555555556</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="P25">
-        <v>0.5925925925925926</v>
+        <v>0.2962962962962963</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1719,49 +1719,49 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.5802469135802469</v>
+        <v>0.2901234567901235</v>
       </c>
       <c r="C26">
-        <v>0.7037037037037037</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="D26">
-        <v>0.5925925925925926</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="E26">
-        <v>0.6172839506172839</v>
+        <v>0.308641975308642</v>
       </c>
       <c r="F26">
-        <v>0.4691358024691358</v>
+        <v>0.2345679012345679</v>
       </c>
       <c r="G26">
-        <v>0.4814814814814815</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="H26">
-        <v>0.5432098765432098</v>
+        <v>0.2716049382716049</v>
       </c>
       <c r="I26">
-        <v>0.6049382716049383</v>
+        <v>0.3024691358024691</v>
       </c>
       <c r="J26">
-        <v>0.4320987654320987</v>
+        <v>0.2160493827160494</v>
       </c>
       <c r="K26">
-        <v>0.5925925925925926</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L26">
-        <v>0.4320987654320987</v>
+        <v>0.2160493827160494</v>
       </c>
       <c r="M26">
-        <v>0.4814814814814815</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="N26">
-        <v>0.4938271604938271</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="O26">
-        <v>0.4444444444444444</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="P26">
-        <v>0.5061728395061729</v>
+        <v>0.2530864197530864</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1769,49 +1769,49 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.6790123456790124</v>
+        <v>0.3395061728395062</v>
       </c>
       <c r="C27">
-        <v>0.6049382716049383</v>
+        <v>0.3024691358024691</v>
       </c>
       <c r="D27">
-        <v>0.6172839506172839</v>
+        <v>0.308641975308642</v>
       </c>
       <c r="E27">
-        <v>0.7037037037037037</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="F27">
-        <v>0.5802469135802469</v>
+        <v>0.2901234567901235</v>
       </c>
       <c r="G27">
-        <v>0.4567901234567901</v>
+        <v>0.228395061728395</v>
       </c>
       <c r="H27">
-        <v>0.5308641975308642</v>
+        <v>0.2654320987654321</v>
       </c>
       <c r="I27">
-        <v>0.4814814814814815</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="J27">
-        <v>0.4567901234567901</v>
+        <v>0.228395061728395</v>
       </c>
       <c r="K27">
-        <v>0.6419753086419753</v>
+        <v>0.3209876543209876</v>
       </c>
       <c r="L27">
-        <v>0.6049382716049383</v>
+        <v>0.3024691358024691</v>
       </c>
       <c r="M27">
-        <v>0.5679012345679012</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="N27">
-        <v>0.5925925925925926</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="O27">
-        <v>0.5185185185185185</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="P27">
-        <v>0.5555555555555556</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1819,49 +1819,49 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.6172839506172839</v>
+        <v>0.308641975308642</v>
       </c>
       <c r="C28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D28">
-        <v>0.6419753086419753</v>
+        <v>0.3209876543209876</v>
       </c>
       <c r="E28">
-        <v>0.5925925925925926</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="F28">
-        <v>0.654320987654321</v>
+        <v>0.3271604938271605</v>
       </c>
       <c r="G28">
-        <v>0.6172839506172839</v>
+        <v>0.308641975308642</v>
       </c>
       <c r="H28">
-        <v>0.6049382716049383</v>
+        <v>0.3024691358024691</v>
       </c>
       <c r="I28">
-        <v>0.5308641975308642</v>
+        <v>0.2654320987654321</v>
       </c>
       <c r="J28">
-        <v>0.5679012345679012</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="K28">
-        <v>0.5679012345679012</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="L28">
-        <v>0.6419753086419753</v>
+        <v>0.3209876543209876</v>
       </c>
       <c r="M28">
-        <v>0.5555555555555556</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="N28">
-        <v>0.6172839506172839</v>
+        <v>0.308641975308642</v>
       </c>
       <c r="O28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="P28">
-        <v>0.6296296296296297</v>
+        <v>0.3148148148148148</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1869,28 +1869,28 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.4444444444444444</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C29">
-        <v>0.4567901234567901</v>
+        <v>0.228395061728395</v>
       </c>
       <c r="D29">
-        <v>0.3703703703703703</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="E29">
-        <v>0.4444444444444444</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="F29">
-        <v>0.5061728395061729</v>
+        <v>0.2530864197530864</v>
       </c>
       <c r="G29">
-        <v>0.4938271604938271</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="H29">
-        <v>0.5061728395061729</v>
+        <v>0.2530864197530864</v>
       </c>
       <c r="I29">
-        <v>0.4567901234567901</v>
+        <v>0.228395061728395</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1919,49 +1919,49 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.5185185185185185</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="C30">
-        <v>0.5061728395061729</v>
+        <v>0.2530864197530864</v>
       </c>
       <c r="D30">
-        <v>0.5185185185185185</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="E30">
-        <v>0.5308641975308642</v>
+        <v>0.2654320987654321</v>
       </c>
       <c r="F30">
-        <v>0.6296296296296297</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="G30">
-        <v>0.5432098765432098</v>
+        <v>0.2716049382716049</v>
       </c>
       <c r="H30">
-        <v>0.4814814814814815</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="I30">
-        <v>0.5802469135802469</v>
+        <v>0.2901234567901235</v>
       </c>
       <c r="J30">
-        <v>0.4938271604938271</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="K30">
-        <v>0.5925925925925926</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L30">
-        <v>0.6296296296296297</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="M30">
-        <v>0.6419753086419753</v>
+        <v>0.3209876543209876</v>
       </c>
       <c r="N30">
-        <v>0.6172839506172839</v>
+        <v>0.308641975308642</v>
       </c>
       <c r="O30">
-        <v>0.5679012345679012</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="P30">
-        <v>0.4074074074074074</v>
+        <v>0.2037037037037037</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1969,49 +1969,49 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.5555555555555556</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C31">
-        <v>0.4938271604938271</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="D31">
-        <v>0.5185185185185185</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="E31">
-        <v>0.5061728395061729</v>
+        <v>0.2530864197530864</v>
       </c>
       <c r="F31">
-        <v>0.4938271604938271</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="G31">
-        <v>0.5308641975308642</v>
+        <v>0.2654320987654321</v>
       </c>
       <c r="H31">
-        <v>0.6172839506172839</v>
+        <v>0.308641975308642</v>
       </c>
       <c r="I31">
-        <v>0.6049382716049383</v>
+        <v>0.3024691358024691</v>
       </c>
       <c r="J31">
-        <v>0.5802469135802469</v>
+        <v>0.2901234567901235</v>
       </c>
       <c r="K31">
-        <v>0.5432098765432098</v>
+        <v>0.2716049382716049</v>
       </c>
       <c r="L31">
-        <v>0.5555555555555556</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="M31">
-        <v>0.5185185185185185</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="N31">
-        <v>0.5061728395061729</v>
+        <v>0.2530864197530864</v>
       </c>
       <c r="O31">
-        <v>0.4938271604938271</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="P31">
-        <v>0.5679012345679012</v>
+        <v>0.2839506172839506</v>
       </c>
     </row>
   </sheetData>
